--- a/pred_ohlcv/54_21/2019-10-08 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 INS ohlcv.xlsx
@@ -5358,7 +5358,7 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-48842.14070000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-50117.28630000001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>28248.85409999999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>28224.85409999999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4502.034799999994</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>5531.700099999994</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>8581.700099999995</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>112229.9755549618</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>112241.9950549618</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>107794.0456549618</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>107621.6319549618</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>107622.6319549618</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>114931.3727549618</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>97963.76155496179</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>96661.76155496179</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>92318.76155496179</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>96612.5668549618</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>94155.83635496179</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>99174.83635496179</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>115739.6184549618</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>112171.4721549618</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>113024.0459549618</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>111507.8881549618</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>108056.0657549618</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>109284.0657549618</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>109284.0657549618</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>110433.6680549618</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>103871.9496549618</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>48417.69935496178</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-52616.98834503821</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-08 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-08 INS ohlcv.xlsx
@@ -5358,7 +5358,7 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-39399.38520000001</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-48844.14070000001</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-48843.14070000001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-48843.14070000001</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-48842.14070000001</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-48852.14070000001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-50117.28630000001</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-34234.38360000001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>12656.82429999999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>28248.85409999999</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>28224.85409999999</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4502.034799999994</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6281.700099999994</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>5531.700099999994</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>8581.700099999995</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>93261.0349549618</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>93261.0349549618</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>88389.6707549618</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>93860.7476549618</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>93860.7476549618</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>119059.9494549618</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>112229.9755549618</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>112241.9950549618</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>107794.0456549618</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>107621.6319549618</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>107622.6319549618</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>114931.3727549618</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>97962.76155496179</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>97963.76155496179</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>96661.76155496179</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>92318.76155496179</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>96612.5668549618</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>94155.83635496179</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>95155.83635496179</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>104841.1983549618</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>115739.6184549618</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>112171.4721549618</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>113024.0459549618</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>111465.8881549618</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>111507.8881549618</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>109851.8881549618</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>108056.0657549618</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-52616.98834503821</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
